--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CFFB1D-F9B8-417B-BFBC-7B7D0EFA7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765EBFB8-E75C-4977-B929-F37B94418364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,18 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_vaule1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notforShop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사냥꾼의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,46 +134,331 @@
     <t>견습기사의 검이다.</t>
   </si>
   <si>
+    <t>신의 검이다.</t>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷이다.</t>
+  </si>
+  <si>
+    <t>견습기사의 갑옷이다.</t>
+  </si>
+  <si>
+    <t>마스터의 갑옷이다.</t>
+  </si>
+  <si>
+    <t>신의 갑옷이다.</t>
+  </si>
+  <si>
+    <t>사냥꾼의 방패이다.</t>
+  </si>
+  <si>
+    <t>견습기사의 방패이다.</t>
+  </si>
+  <si>
+    <t>마스터의 방패이다.</t>
+  </si>
+  <si>
+    <t>신의 방패이다.</t>
+  </si>
+  <si>
+    <t>사냥꾼의 신발이다.</t>
+  </si>
+  <si>
+    <t>견습기사의 신발이다.</t>
+  </si>
+  <si>
+    <t>마스터의 신발이다.</t>
+  </si>
+  <si>
+    <t>신의 신발이다.</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사냥꾼의 검이다. 같은등급에서는 최고의 공격력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>마스터의 검이다.</t>
-  </si>
-  <si>
-    <t>신의 검이다.</t>
-  </si>
-  <si>
-    <t>사냥꾼의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>견습기사의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>마스터의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>신의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>사냥꾼의 방패이다.</t>
-  </si>
-  <si>
-    <t>견습기사의 방패이다.</t>
-  </si>
-  <si>
-    <t>마스터의 방패이다.</t>
-  </si>
-  <si>
-    <t>신의 방패이다.</t>
-  </si>
-  <si>
-    <t>사냥꾼의 신발이다.</t>
-  </si>
-  <si>
-    <t>견습기사의 신발이다.</t>
-  </si>
-  <si>
-    <t>마스터의 신발이다.</t>
-  </si>
-  <si>
-    <t>신의 신발이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검이다. 같은등급에서는 최고의 공격력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검이다. 같은등급에서는 최고의 공격력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검이다. 같은등급에서는 최고의 공격력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷이다.같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷이다.같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷이다. 같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷이다. 같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패이다. 같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패이다. 같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패이다. 같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패 (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패 (S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패이다. 같은등급에서는 최고의 방어력을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 신발이다. 같은등급에서는 최고의 효율을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 신발이다. 같은등급에서는 최고의 효율을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 신발이다. 같은등급에서는 최고의 효율을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 신발이다. 같은등급에서는 최고의 효율을 자랑한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,9 +504,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,316 +840,1144 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>10001001</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>10001002</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>10001003</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>10001004</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>10001005</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>10001006</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>10001007</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>10001008</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>10001009</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>10001010</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>10001011</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10001012</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>20001001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>20001002</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>20001003</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>20001004</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>20001005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>20001006</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>20001007</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1002</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>20001008</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>20001009</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="1">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>20001010</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>20001011</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>20001012</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>30001001</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>30001002</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>30001003</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>30001004</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>30001005</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>30001006</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>30001007</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>30001008</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1004</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>30001009</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="1">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>30001010</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>30001011</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="1">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>30001012</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>40001001</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1005</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>40001002</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>40001003</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="1">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>40001004</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="1">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>40001005</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="1">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>40001006</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>40001007</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1006</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>40001008</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>40001009</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="1">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>40001010</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="1">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>40001011</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1010</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>40001012</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>1012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1014</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1016</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
+      <c r="H49" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CFFB1D-F9B8-417B-BFBC-7B7D0EFA7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE7ACE-8252-47A5-AC92-765E82EAFD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,18 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_vaule1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notforShop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사냥꾼의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +178,302 @@
   </si>
   <si>
     <t>신의 신발이다.</t>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷이다.기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사냥꾼의 검이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패이다.기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 신발(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 신발(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 신발이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 신발이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 신발이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 신발이다. 기존 등급에서 최고의 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,9 +519,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,32 +840,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -604,288 +877,1414 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10001001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10001002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10001003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10001004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10001005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10001006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10001007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10001008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>1007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1009</v>
+        <v>10001009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1010</v>
+        <v>10001010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10001011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10001012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20001001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20001002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>120</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20001003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>140</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20001004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>150</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20001005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>170</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20001006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>190</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20001007</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>200</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20001008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>220</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20001009</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>240</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20001010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>250</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20001011</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>270</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20001012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>300</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>30001001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>30001002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>30001003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>14</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>30001004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30001005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <v>17</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30001006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>19</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30001007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <v>20</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30001008</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30001009</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>24</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30001010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <v>25</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30001011</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <v>27</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30001012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
+        <v>30</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>40001013</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>40001014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40001015</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40001016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40001017</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L42" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40001018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40001019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>1012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40001020</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L45" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>40001021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L46" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>40001022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1014</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>40001023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1016</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>40001024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE7ACE-8252-47A5-AC92-765E82EAFD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E4A9B-37E8-4F19-97B0-3926B9518184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사냥꾼의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,22 +176,6 @@
     <t>신의 신발이다.</t>
   </si>
   <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Item/Weapon/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>견습기사의 검(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +449,30 @@
   </si>
   <si>
     <t>Sprite/Item/Boots/Boots_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +843,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -877,22 +877,22 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -900,19 +900,19 @@
         <v>10001001</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>10</v>
@@ -930,19 +930,19 @@
         <v>10001002</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1">
         <v>12</v>
@@ -960,19 +960,19 @@
         <v>10001003</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1">
         <v>14</v>
@@ -990,19 +990,19 @@
         <v>10001004</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -1020,19 +1020,19 @@
         <v>10001005</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1">
         <v>17</v>
@@ -1050,19 +1050,19 @@
         <v>10001006</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1">
         <v>19</v>
@@ -1080,19 +1080,19 @@
         <v>10001007</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1">
         <v>20</v>
@@ -1110,19 +1110,19 @@
         <v>10001008</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>22</v>
@@ -1140,19 +1140,19 @@
         <v>10001009</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>24</v>
@@ -1170,19 +1170,19 @@
         <v>10001010</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1">
         <v>25</v>
@@ -1200,19 +1200,19 @@
         <v>10001011</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
         <v>27</v>
@@ -1230,19 +1230,19 @@
         <v>10001012</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1">
         <v>30</v>
@@ -1260,19 +1260,19 @@
         <v>20001001</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1288,19 +1288,19 @@
         <v>20001002</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1316,19 +1316,19 @@
         <v>20001003</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1344,19 +1344,19 @@
         <v>20001004</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1372,19 +1372,19 @@
         <v>20001005</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1400,19 +1400,19 @@
         <v>20001006</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1428,19 +1428,19 @@
         <v>20001007</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1456,19 +1456,19 @@
         <v>20001008</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1484,19 +1484,19 @@
         <v>20001009</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1512,19 +1512,19 @@
         <v>20001010</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1540,19 +1540,19 @@
         <v>20001011</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1568,19 +1568,19 @@
         <v>20001012</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1596,19 +1596,19 @@
         <v>30001001</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1624,19 +1624,19 @@
         <v>30001002</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1652,19 +1652,19 @@
         <v>30001003</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1680,19 +1680,19 @@
         <v>30001004</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1708,19 +1708,19 @@
         <v>30001005</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1736,19 +1736,19 @@
         <v>30001006</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1764,19 +1764,19 @@
         <v>30001007</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1792,19 +1792,19 @@
         <v>30001008</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1820,19 +1820,19 @@
         <v>30001009</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1848,19 +1848,19 @@
         <v>30001010</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1876,19 +1876,19 @@
         <v>30001011</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1904,19 +1904,19 @@
         <v>30001012</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1932,19 +1932,19 @@
         <v>40001013</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1962,19 +1962,19 @@
         <v>40001014</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1992,19 +1992,19 @@
         <v>40001015</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2022,19 +2022,19 @@
         <v>40001016</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2052,19 +2052,19 @@
         <v>40001017</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2082,19 +2082,19 @@
         <v>40001018</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
         <v>103</v>
       </c>
-      <c r="E43" t="s">
-        <v>109</v>
-      </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2112,19 +2112,19 @@
         <v>40001019</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2142,19 +2142,19 @@
         <v>40001020</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2172,19 +2172,19 @@
         <v>40001021</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2202,19 +2202,19 @@
         <v>40001022</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2232,19 +2232,19 @@
         <v>40001023</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2262,19 +2262,19 @@
         <v>40001024</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E4A9B-37E8-4F19-97B0-3926B9518184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C403D2-C72A-4889-8C6A-0B3E83354AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -452,27 +452,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_value3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_value4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_value5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_value6</t>
+    <t>_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_stamina</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,6 +854,7 @@
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C403D2-C72A-4889-8C6A-0B3E83354AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451559A4-9406-4E0F-AAD3-F5BF587E2D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451559A4-9406-4E0F-AAD3-F5BF587E2D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8205CD4-55DA-48E5-8060-2BA9ADA28092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,134 @@
   </si>
   <si>
     <t>_stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4_S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,7 +1071,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1">
         <v>12</v>
@@ -973,7 +1101,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1">
         <v>14</v>
@@ -1033,7 +1161,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1">
         <v>17</v>
@@ -1063,7 +1191,7 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1">
         <v>19</v>
@@ -1123,7 +1251,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="G9" s="1">
         <v>22</v>
@@ -1153,7 +1281,7 @@
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1">
         <v>24</v>
@@ -1213,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="G12" s="1">
         <v>27</v>
@@ -1243,7 +1371,7 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1">
         <v>30</v>
@@ -1301,7 +1429,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1329,7 +1457,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1385,7 +1513,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1413,7 +1541,7 @@
         <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1469,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1497,7 +1625,7 @@
         <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1553,7 +1681,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1581,7 +1709,7 @@
         <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1637,7 +1765,7 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1665,7 +1793,7 @@
         <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1721,7 +1849,7 @@
         <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1749,7 +1877,7 @@
         <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1805,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1833,7 +1961,7 @@
         <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1889,7 +2017,7 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1917,7 +2045,7 @@
         <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1975,7 +2103,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2005,7 +2133,7 @@
         <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2065,7 +2193,7 @@
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2095,7 +2223,7 @@
         <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2155,7 +2283,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2185,7 +2313,7 @@
         <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2245,7 +2373,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2275,7 +2403,7 @@
         <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8205CD4-55DA-48E5-8060-2BA9ADA28092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3911C-09C6-4294-B3A1-285D2AF261B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사냥꾼의 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>견습기사의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>견습기사의 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마스터의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마스터의 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,59 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신의 신발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사냥꾼의 검이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 검이다.</t>
-  </si>
-  <si>
-    <t>마스터의 검이다.</t>
-  </si>
-  <si>
-    <t>신의 검이다.</t>
-  </si>
-  <si>
-    <t>사냥꾼의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>견습기사의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>마스터의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>신의 갑옷이다.</t>
-  </si>
-  <si>
-    <t>사냥꾼의 방패이다.</t>
-  </si>
-  <si>
-    <t>견습기사의 방패이다.</t>
-  </si>
-  <si>
-    <t>마스터의 방패이다.</t>
-  </si>
-  <si>
-    <t>신의 방패이다.</t>
-  </si>
-  <si>
-    <t>사냥꾼의 신발이다.</t>
-  </si>
-  <si>
-    <t>견습기사의 신발이다.</t>
-  </si>
-  <si>
-    <t>마스터의 신발이다.</t>
-  </si>
-  <si>
-    <t>신의 신발이다.</t>
-  </si>
-  <si>
     <t>Sprite/Item/Weapon/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,38 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신의 갑옷이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 갑옷이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 갑옷이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 갑옷이다.기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 검이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 검이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 검이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사냥꾼의 검이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사냥꾼의 갑옷(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,14 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사냥꾼의 방패이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 방패이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Item/Shield/Shield_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,18 +255,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마스터의 방패이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Item/Shield/Shield_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신의 방패이다.기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신의 방패(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,54 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사냥꾼의 신발(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 신발(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 신발(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 신발(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 신발(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 신발(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 신발(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 신발(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 신발이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 신발이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 신발이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 신발이다. 기존 등급에서 최고의 상태이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Item/Boots/Boots_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +440,210 @@
   </si>
   <si>
     <t>Sprite/Item/Boots/Boots_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 검 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 쓸만해 보이지는 않는다.첫 환생때는 이걸로 시작한거 같은데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 몇번 휘두르면 부서질 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아 보이긴하지만..마왕을 상대하는데는 부족해..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 검이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 검이 아직 있었다니..마왕한테도 통할것같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 검이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 하도르의 검이군.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 검의 원래 주인은 지금 나로써도..감당가능 할지는 모르겠군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 검은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이시여.. 당신의 뜻을 받들겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 몇번 맞으면 부서질 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 갑옷 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 갑옷이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 피를로의 갑옷.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 갑옷의 원래 주인은 지금 나로써도..감당가능 할지는 모르겠군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 갑옷이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 갑옷이 아직 있었다니..마왕의 공격을 버텨줄 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 갑옷은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 방패 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 방패이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 조로의 갑옷.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 방패는 아주 훌룡한 대장장이가 만든것같아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 방패이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 방패이 아직 있었다니..마왕의 공격을 버텨줄 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 방패은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착용감이 안좋긴 하군..없는것 보다야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 부츠 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 부츠은 아니지만 상태는 좋군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 부츠이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 파이의 부츠.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 부츠는 요정이 만든건가? 몸이 아주 가벼워 진 것같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 부츠이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 부츠가 아직 있었다니..마왕의 공격을 피할 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 부츠은 세상에 없을것이야!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -991,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1006,22 +1049,22 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1029,7 +1072,7 @@
         <v>10001001</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1038,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>10</v>
@@ -1059,19 +1102,19 @@
         <v>10001002</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1">
         <v>12</v>
@@ -1089,19 +1132,19 @@
         <v>10001003</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="G4" s="1">
         <v>14</v>
@@ -1119,19 +1162,19 @@
         <v>10001004</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -1149,19 +1192,19 @@
         <v>10001005</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1">
         <v>17</v>
@@ -1179,19 +1222,19 @@
         <v>10001006</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1">
         <v>19</v>
@@ -1209,19 +1252,19 @@
         <v>10001007</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>20</v>
@@ -1239,19 +1282,19 @@
         <v>10001008</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1">
         <v>22</v>
@@ -1269,19 +1312,19 @@
         <v>10001009</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1">
         <v>24</v>
@@ -1299,19 +1342,19 @@
         <v>10001010</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1">
         <v>25</v>
@@ -1329,19 +1372,19 @@
         <v>10001011</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1">
         <v>27</v>
@@ -1359,19 +1402,19 @@
         <v>10001012</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1">
         <v>30</v>
@@ -1389,7 +1432,7 @@
         <v>20001001</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1398,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1417,19 +1460,19 @@
         <v>20001002</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1445,19 +1488,19 @@
         <v>20001003</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1473,19 +1516,19 @@
         <v>20001004</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1501,19 +1544,19 @@
         <v>20001005</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1529,19 +1572,19 @@
         <v>20001006</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1557,19 +1600,19 @@
         <v>20001007</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1585,19 +1628,19 @@
         <v>20001008</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1613,19 +1656,19 @@
         <v>20001009</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1641,19 +1684,19 @@
         <v>20001010</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1669,19 +1712,19 @@
         <v>20001011</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1697,19 +1740,19 @@
         <v>20001012</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1725,7 +1768,7 @@
         <v>30001001</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1734,10 +1777,10 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1753,19 +1796,19 @@
         <v>30001002</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1781,19 +1824,19 @@
         <v>30001003</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1809,19 +1852,19 @@
         <v>30001004</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1837,19 +1880,19 @@
         <v>30001005</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1865,19 +1908,19 @@
         <v>30001006</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1893,19 +1936,19 @@
         <v>30001007</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1921,19 +1964,19 @@
         <v>30001008</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1949,19 +1992,19 @@
         <v>30001009</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1977,19 +2020,19 @@
         <v>30001010</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2005,19 +2048,19 @@
         <v>30001011</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2033,19 +2076,19 @@
         <v>30001012</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2061,19 +2104,19 @@
         <v>40001013</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2091,19 +2134,19 @@
         <v>40001014</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2121,19 +2164,19 @@
         <v>40001015</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2151,19 +2194,19 @@
         <v>40001016</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2181,19 +2224,19 @@
         <v>40001017</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2211,19 +2254,19 @@
         <v>40001018</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2241,19 +2284,19 @@
         <v>40001019</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2271,19 +2314,19 @@
         <v>40001020</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2301,19 +2344,19 @@
         <v>40001021</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2331,19 +2374,19 @@
         <v>40001022</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2361,19 +2404,19 @@
         <v>40001023</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2391,19 +2434,19 @@
         <v>40001024</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3911C-09C6-4294-B3A1-285D2AF261B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B85BAE-A99C-4851-AB2D-35A0BD830373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>이 보다 좋은 부츠은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Exp/exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2459,6 +2471,20 @@
         <v>300</v>
       </c>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50001000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B85BAE-A99C-4851-AB2D-35A0BD830373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF159601-0BF7-46ED-A600-C2C18DBCFCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,6 +656,10 @@
   </si>
   <si>
     <t>Sprite/Item/Exp/exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1045,7 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1078,8 +1082,11 @@
       <c r="L1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001001</v>
       </c>
@@ -1109,7 +1116,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001002</v>
       </c>
@@ -1139,7 +1146,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10001003</v>
       </c>
@@ -1169,7 +1176,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10001004</v>
       </c>
@@ -1199,7 +1206,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10001005</v>
       </c>
@@ -1229,7 +1236,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10001006</v>
       </c>
@@ -1259,7 +1266,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10001007</v>
       </c>
@@ -1289,7 +1296,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10001008</v>
       </c>
@@ -1319,7 +1326,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10001009</v>
       </c>
@@ -1349,7 +1356,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10001010</v>
       </c>
@@ -1379,7 +1386,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10001011</v>
       </c>
@@ -1409,7 +1416,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10001012</v>
       </c>
@@ -1439,7 +1446,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20001001</v>
       </c>
@@ -1467,7 +1474,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20001002</v>
       </c>
@@ -1495,7 +1502,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20001003</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>40001024</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50001000</v>
       </c>
@@ -2483,6 +2490,9 @@
       </c>
       <c r="F50" t="s">
         <v>157</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/RawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF159601-0BF7-46ED-A600-C2C18DBCFCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD83D12-0F71-490F-A0DB-5AD650BAE991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="161">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,14 @@
   </si>
   <si>
     <t>_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_buyPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1053,7 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1085,8 +1093,14 @@
       <c r="M1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001001</v>
       </c>
@@ -1115,8 +1129,14 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001002</v>
       </c>
@@ -1145,8 +1165,14 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10001003</v>
       </c>
@@ -1175,8 +1201,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10001004</v>
       </c>
@@ -1205,8 +1237,14 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1600</v>
+      </c>
+      <c r="O5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10001005</v>
       </c>
@@ -1235,8 +1273,14 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>1500</v>
+      </c>
+      <c r="O6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10001006</v>
       </c>
@@ -1265,8 +1309,14 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>1800</v>
+      </c>
+      <c r="O7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10001007</v>
       </c>
@@ -1295,8 +1345,14 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>2000</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10001008</v>
       </c>
@@ -1325,8 +1381,14 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>2300</v>
+      </c>
+      <c r="O9">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10001009</v>
       </c>
@@ -1355,8 +1417,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>2700</v>
+      </c>
+      <c r="O10">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10001010</v>
       </c>
@@ -1385,8 +1453,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>3000</v>
+      </c>
+      <c r="O11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10001011</v>
       </c>
@@ -1415,8 +1489,14 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>3500</v>
+      </c>
+      <c r="O12">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10001012</v>
       </c>
@@ -1445,8 +1525,14 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>5000</v>
+      </c>
+      <c r="O13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20001001</v>
       </c>
@@ -1473,8 +1559,14 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20001002</v>
       </c>
@@ -1501,8 +1593,14 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>500</v>
+      </c>
+      <c r="O15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20001003</v>
       </c>
@@ -1529,8 +1627,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>1000</v>
+      </c>
+      <c r="O16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20001004</v>
       </c>
@@ -1557,8 +1661,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>1600</v>
+      </c>
+      <c r="O17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20001005</v>
       </c>
@@ -1585,8 +1695,14 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>1500</v>
+      </c>
+      <c r="O18">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20001006</v>
       </c>
@@ -1613,8 +1729,14 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>1800</v>
+      </c>
+      <c r="O19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20001007</v>
       </c>
@@ -1641,8 +1763,14 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20001008</v>
       </c>
@@ -1669,8 +1797,14 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>2300</v>
+      </c>
+      <c r="O21">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20001009</v>
       </c>
@@ -1697,8 +1831,14 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>2700</v>
+      </c>
+      <c r="O22">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20001010</v>
       </c>
@@ -1725,8 +1865,14 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>3000</v>
+      </c>
+      <c r="O23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20001011</v>
       </c>
@@ -1753,8 +1899,14 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>3500</v>
+      </c>
+      <c r="O24">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20001012</v>
       </c>
@@ -1781,8 +1933,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>5000</v>
+      </c>
+      <c r="O25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30001001</v>
       </c>
@@ -1809,8 +1967,14 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30001002</v>
       </c>
@@ -1837,8 +2001,14 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>500</v>
+      </c>
+      <c r="O27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>30001003</v>
       </c>
@@ -1865,8 +2035,14 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>1000</v>
+      </c>
+      <c r="O28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30001004</v>
       </c>
@@ -1893,8 +2069,14 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>1600</v>
+      </c>
+      <c r="O29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30001005</v>
       </c>
@@ -1921,8 +2103,14 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>1500</v>
+      </c>
+      <c r="O30">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30001006</v>
       </c>
@@ -1949,8 +2137,14 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>1800</v>
+      </c>
+      <c r="O31">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30001007</v>
       </c>
@@ -1977,8 +2171,14 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>2000</v>
+      </c>
+      <c r="O32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30001008</v>
       </c>
@@ -2005,8 +2205,14 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>2300</v>
+      </c>
+      <c r="O33">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30001009</v>
       </c>
@@ -2033,8 +2239,14 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>2700</v>
+      </c>
+      <c r="O34">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30001010</v>
       </c>
@@ -2061,8 +2273,14 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>3000</v>
+      </c>
+      <c r="O35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30001011</v>
       </c>
@@ -2089,8 +2307,14 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>3500</v>
+      </c>
+      <c r="O36">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>30001012</v>
       </c>
@@ -2117,8 +2341,14 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>5000</v>
+      </c>
+      <c r="O37">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>40001013</v>
       </c>
@@ -2147,8 +2377,14 @@
       <c r="L38" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>100</v>
+      </c>
+      <c r="O38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40001014</v>
       </c>
@@ -2177,8 +2413,14 @@
       <c r="L39" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>500</v>
+      </c>
+      <c r="O39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40001015</v>
       </c>
@@ -2207,8 +2449,14 @@
       <c r="L40" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>1000</v>
+      </c>
+      <c r="O40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40001016</v>
       </c>
@@ -2237,8 +2485,14 @@
       <c r="L41" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>1600</v>
+      </c>
+      <c r="O41">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40001017</v>
       </c>
@@ -2267,8 +2521,14 @@
       <c r="L42" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>1500</v>
+      </c>
+      <c r="O42">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40001018</v>
       </c>
@@ -2297,8 +2557,14 @@
       <c r="L43" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>1800</v>
+      </c>
+      <c r="O43">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40001019</v>
       </c>
@@ -2327,8 +2593,14 @@
       <c r="L44" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>2000</v>
+      </c>
+      <c r="O44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40001020</v>
       </c>
@@ -2357,8 +2629,14 @@
       <c r="L45" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>2300</v>
+      </c>
+      <c r="O45">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40001021</v>
       </c>
@@ -2387,8 +2665,14 @@
       <c r="L46" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>2700</v>
+      </c>
+      <c r="O46">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>40001022</v>
       </c>
@@ -2417,8 +2701,14 @@
       <c r="L47" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>3000</v>
+      </c>
+      <c r="O47">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>40001023</v>
       </c>
@@ -2447,8 +2737,14 @@
       <c r="L48" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>3500</v>
+      </c>
+      <c r="O48">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>40001024</v>
       </c>
@@ -2477,8 +2773,14 @@
       <c r="L49" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>5000</v>
+      </c>
+      <c r="O49">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50001000</v>
       </c>
